--- a/Hours/Ozgur/OzgurHours.xlsx
+++ b/Hours/Ozgur/OzgurHours.xlsx
@@ -1,26 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozgur\Documents\GitHub\MAMMAO\Hours\Ozgur\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15AA9A-55C4-4CEB-9600-114AEA1D90F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>9:00-10:35</t>
+  </si>
+  <si>
+    <t>11:15-11:45</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Participate in meeting</t>
+  </si>
+  <si>
+    <t>setup for tools used by group (Github, Trello)</t>
+  </si>
+  <si>
+    <t>11:45-12:30</t>
+  </si>
+  <si>
+    <t>12:30-13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutor </t>
+  </si>
+  <si>
+    <t>Set up questions for the tutor meeting</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Create and fill in log</t>
+  </si>
+  <si>
+    <t>13:00-13:30</t>
+  </si>
+  <si>
+    <t>19:00-19:30</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Reading the manual</t>
+  </si>
+  <si>
+    <t>Duration (minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>8:40-8:50</t>
+  </si>
+  <si>
+    <t>16:00-16:30</t>
+  </si>
+  <si>
+    <t>Total time (minutes)</t>
+  </si>
+  <si>
+    <t>read through provided documents and do quick research when necessary, note down questions for tutor meeting</t>
+  </si>
+  <si>
+    <t>16:30-17:40</t>
+  </si>
+  <si>
+    <t>Lesson</t>
+  </si>
+  <si>
+    <t>Professional skills class</t>
+  </si>
+  <si>
+    <t>10:45-12:15</t>
+  </si>
+  <si>
+    <t>15:30-16:15</t>
+  </si>
+  <si>
+    <t>tutor class, meeting not done</t>
+  </si>
+  <si>
+    <t>Learing</t>
+  </si>
+  <si>
+    <t>Learing C coding by making the assignments for PRG class</t>
+  </si>
+  <si>
+    <t>Made a start to learing Programming</t>
+  </si>
+  <si>
+    <t>16:45-17:15</t>
+  </si>
+  <si>
+    <t>13:00-13:45</t>
+  </si>
+  <si>
+    <t>Meeting to assign tasks</t>
+  </si>
+  <si>
+    <t>17:20-18:40</t>
+  </si>
+  <si>
+    <t>Learing Micro controller by making the assignments for MIC class</t>
+  </si>
+  <si>
+    <t>20:30-22:30</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +170,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -45,17 +199,438 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +641,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F24" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:F24" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{57987F6F-B104-4318-B5A9-F1D31B0225C6}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{98AC02DD-779E-437E-A077-CC4FC767260F}" name="Time " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FB677237-6245-4C34-90E5-C7FD09FDA823}" name="Duration (minutes)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F5C18A3B-0E81-49E5-9FD2-74EB8E8112C3}" name="Subject" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0B3D0241-C373-42CE-9C70-8A5AFFD65661}" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +919,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="13">
+        <v>45168</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>45169</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="15">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>45174</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>95</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="15">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>45175</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15">
+        <v>90</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="15">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="24">
+        <v>45176</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="15">
+        <v>45</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="15">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="15">
+        <v>160</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <f>SUM(Table1[Duration (minutes)])</f>
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Hours/Ozgur/OzgurHours.xlsx
+++ b/Hours/Ozgur/OzgurHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozgur\Documents\GitHub\MAMMAO\Hours\Ozgur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15AA9A-55C4-4CEB-9600-114AEA1D90F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CBEE79-6099-44E1-A3F6-CC4CB2093B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>20:30-22:30</t>
+  </si>
+  <si>
+    <t>Learing C coding by making the assignments for PRG class and researching when necessary</t>
+  </si>
+  <si>
+    <t>17:45-19:45</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -471,6 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,14 +1195,24 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="26">
+        <v>45177</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="15">
+        <v>120</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="4"/>
       <c r="D19" s="15"/>
       <c r="E19" s="5"/>
@@ -1205,7 +1222,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1242,7 +1259,7 @@
       </c>
       <c r="D26">
         <f>SUM(Table1[Duration (minutes)])</f>
-        <v>830</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/Hours/Ozgur/OzgurHours.xlsx
+++ b/Hours/Ozgur/OzgurHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozgur\Documents\GitHub\MAMMAO\Hours\Ozgur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CBEE79-6099-44E1-A3F6-CC4CB2093B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3930B281-DCEC-4D28-8B50-62B8E2F08C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,45 @@
   </si>
   <si>
     <t>17:45-19:45</t>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+  </si>
+  <si>
+    <t>16:45-17:30</t>
+  </si>
+  <si>
+    <t>tutor class</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Started the functional design report</t>
+  </si>
+  <si>
+    <t>20:00-21:45</t>
+  </si>
+  <si>
+    <t>continued the functional design report, research and learing for the report</t>
+  </si>
+  <si>
+    <t>22:00-1:45</t>
+  </si>
+  <si>
+    <t>9:00-10:30</t>
+  </si>
+  <si>
+    <t>C programming class</t>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>finished the functional design report, research and learing for the report together with group</t>
   </si>
 </sst>
 </file>
@@ -197,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -446,11 +485,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -478,6 +530,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,8 +709,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F24" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F24" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:F27" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{57987F6F-B104-4318-B5A9-F1D31B0225C6}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{98AC02DD-779E-437E-A077-CC4FC767260F}" name="Time " dataDxfId="3"/>
@@ -927,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,54 +1270,145 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="28">
+        <v>45179</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="15">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="16">
+        <v>45182</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="15">
+        <v>60</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="15">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="15">
+        <v>105</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="15">
+        <v>225</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="14">
+        <v>45183</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="15">
+        <v>90</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
+        <v>30</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="15">
+        <v>120</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D26">
+      <c r="D32" s="32">
         <f>SUM(Table1[Duration (minutes)])</f>
-        <v>950</v>
+        <v>1685</v>
       </c>
     </row>
   </sheetData>

--- a/Hours/Ozgur/OzgurHours.xlsx
+++ b/Hours/Ozgur/OzgurHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozgur\Documents\GitHub\MAMMAO\Hours\Ozgur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3930B281-DCEC-4D28-8B50-62B8E2F08C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C20A41-5792-46E7-9E00-0623D841D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -200,7 +200,34 @@
     <t>13:00-15:00</t>
   </si>
   <si>
-    <t>finished the functional design report, research and learing for the report together with group</t>
+    <t>19:00-20:15</t>
+  </si>
+  <si>
+    <t>21:00-21:45</t>
+  </si>
+  <si>
+    <t>continued the functional design report, research and learing for the report together with group</t>
+  </si>
+  <si>
+    <t>Fixing touches to functional desing report</t>
+  </si>
+  <si>
+    <t>fnished the functional design report</t>
+  </si>
+  <si>
+    <t>8:00-10:30</t>
+  </si>
+  <si>
+    <t>15:45-16:15</t>
+  </si>
+  <si>
+    <t>Learing micro controller by watching videos and experimenting</t>
+  </si>
+  <si>
+    <t>15:00:18:00</t>
+  </si>
+  <si>
+    <t>21:30:00-00:00</t>
   </si>
 </sst>
 </file>
@@ -236,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -498,11 +525,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -533,9 +610,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F27" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F27" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F33" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:F33" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{57987F6F-B104-4318-B5A9-F1D31B0225C6}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{98AC02DD-779E-437E-A077-CC4FC767260F}" name="Time " dataDxfId="3"/>
@@ -985,16 +1066,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="94.44140625" bestFit="1" customWidth="1"/>
@@ -1334,7 +1415,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
         <v>49</v>
       </c>
@@ -1349,10 +1430,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+      <c r="B24" s="16">
         <v>45183</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="30" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="15">
@@ -1366,8 +1447,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8">
@@ -1381,8 +1462,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="15">
@@ -1392,23 +1473,117 @@
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="8">
+        <v>85</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="33">
+        <v>45184</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="15">
+        <v>150</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="8">
+        <v>45</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="34">
+        <v>45189</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="8">
+        <v>45</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="33">
+        <v>45190</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="15">
+        <v>180</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="15">
+        <v>210</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="32"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D34" s="15">
         <f>SUM(Table1[Duration (minutes)])</f>
-        <v>1685</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>

--- a/Hours/Ozgur/OzgurHours.xlsx
+++ b/Hours/Ozgur/OzgurHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozgur\Documents\GitHub\MAMMAO\Hours\Ozgur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C20A41-5792-46E7-9E00-0623D841D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D5A18-1368-4A03-9F6D-C9A0DA43371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,36 @@
   </si>
   <si>
     <t>21:30:00-00:00</t>
+  </si>
+  <si>
+    <t>13:15-16:15</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>making the LCD total time system</t>
+  </si>
+  <si>
+    <t>19:00-22:45</t>
+  </si>
+  <si>
+    <t>13:00-16:15</t>
+  </si>
+  <si>
+    <t>Learning Micro controller by making te assignments for MIC class</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Building the car for the project</t>
+  </si>
+  <si>
+    <t>tutor meeting</t>
+  </si>
+  <si>
+    <t>22:00-00:00</t>
   </si>
 </sst>
 </file>
@@ -612,11 +642,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,8 +820,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F33" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F33" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:F37" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{57987F6F-B104-4318-B5A9-F1D31B0225C6}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{98AC02DD-779E-437E-A077-CC4FC767260F}" name="Time " dataDxfId="3"/>
@@ -1066,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,7 +1522,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>45184</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1524,7 +1554,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <v>45189</v>
       </c>
       <c r="C30" s="29" t="s">
@@ -1536,13 +1566,15 @@
       <c r="E30" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>45190</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="15">
@@ -1557,7 +1589,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="35" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="15">
@@ -1571,19 +1603,93 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="14">
+        <v>45195</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8">
+        <v>180</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="26">
+        <v>45196</v>
+      </c>
       <c r="C34" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="15">
+        <v>225</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="26">
+        <v>45197</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="15">
+        <v>30</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="15">
+        <v>195</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="8">
+        <v>120</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D40" s="15">
         <f>SUM(Table1[Duration (minutes)])</f>
-        <v>2400</v>
+        <v>3150</v>
       </c>
     </row>
   </sheetData>

--- a/Hours/Ozgur/OzgurHours.xlsx
+++ b/Hours/Ozgur/OzgurHours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozgur\Documents\GitHub\MAMMAO\Hours\Ozgur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D5A18-1368-4A03-9F6D-C9A0DA43371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25500A7A-41EB-415B-94D7-FEBB717624BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -227,9 +227,6 @@
     <t>15:00:18:00</t>
   </si>
   <si>
-    <t>21:30:00-00:00</t>
-  </si>
-  <si>
     <t>13:15-16:15</t>
   </si>
   <si>
@@ -258,6 +255,39 @@
   </si>
   <si>
     <t>22:00-00:00</t>
+  </si>
+  <si>
+    <t>15:45-16:30</t>
+  </si>
+  <si>
+    <t>18:15-19:00</t>
+  </si>
+  <si>
+    <t>19:30-20:00</t>
+  </si>
+  <si>
+    <t>12:15-15-45</t>
+  </si>
+  <si>
+    <t>17:30-18:00</t>
+  </si>
+  <si>
+    <t>21:30-00:00</t>
+  </si>
+  <si>
+    <t>18:00-18:30</t>
+  </si>
+  <si>
+    <t>18:00-19:30</t>
+  </si>
+  <si>
+    <t>making the LCD correctly display (speed, direction and mode)</t>
+  </si>
+  <si>
+    <t>making the LCD code into a header file</t>
+  </si>
+  <si>
+    <t>14:15-16:15</t>
   </si>
 </sst>
 </file>
@@ -609,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -647,6 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +851,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F37" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}" name="Table1" displayName="Table1" ref="B2:F46" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:F46" xr:uid="{A9F595E8-A1BD-4605-B223-9004AA5742C3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{57987F6F-B104-4318-B5A9-F1D31B0225C6}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{98AC02DD-779E-437E-A077-CC4FC767260F}" name="Time " dataDxfId="3"/>
@@ -1096,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -1590,7 +1621,7 @@
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="35" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D32" s="15">
         <v>210</v>
@@ -1607,40 +1638,40 @@
         <v>45195</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="8">
         <v>180</v>
       </c>
       <c r="E33" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="7" t="s">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="28">
+        <v>45196</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
-        <v>45196</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="D34" s="15">
         <v>225</v>
       </c>
       <c r="E34" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
+      <c r="B35" s="16">
         <v>45197</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="15">
@@ -1650,28 +1681,28 @@
         <v>31</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="22" t="s">
-        <v>68</v>
+      <c r="B36" s="9"/>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="15">
         <v>195</v>
       </c>
       <c r="E36" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="36" t="s">
-        <v>73</v>
+      <c r="B37" s="25"/>
+      <c r="C37" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="D37" s="8">
         <v>120</v>
@@ -1680,16 +1711,154 @@
         <v>31</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
+        <v>45171</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="15">
+        <v>45</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+      <c r="C39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="8">
+        <v>45</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="25"/>
+      <c r="C40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="8">
+        <v>30</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="26">
+        <v>45172</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="15">
+        <v>210</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="22" t="s">
+      <c r="F41" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="15">
+        <v>30</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="8">
+        <v>30</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="26">
+        <v>45173</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="15">
+        <v>90</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="26">
+        <v>45174</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="8">
+        <f>SUM(101+19)</f>
+        <v>120</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="36">
+        <v>0.6875</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D52" s="15">
         <f>SUM(Table1[Duration (minutes)])</f>
-        <v>3150</v>
+        <v>3750</v>
       </c>
     </row>
   </sheetData>
